--- a/all_PA_sites.xlsx
+++ b/all_PA_sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/j_wilde2_exeter_ac_uk/Documents/Luke Pheasant modelling/Joe/main_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{6EAE6CB6-AD2F-47DB-AFAD-3D26804A72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4F71278-1D4F-4E4C-B9F2-E4E7BA7FC300}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{6EAE6CB6-AD2F-47DB-AFAD-3D26804A72CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A63C9E-A040-4AD3-AA25-97FB95B274AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{64C5E52D-9725-41FC-82E5-14E3DC8501B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64C5E52D-9725-41FC-82E5-14E3DC8501B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,17 +452,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDD824D-0A47-4EFC-B5E9-628DB1F5ABD3}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>288474</v>
       </c>
@@ -486,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>288241</v>
       </c>
@@ -500,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>288068</v>
       </c>
@@ -514,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>285500</v>
       </c>
@@ -528,12 +532,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>284552</v>
       </c>
       <c r="B6">
-        <v>148480</v>
+        <v>148180</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -542,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>474028</v>
       </c>
@@ -556,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>474293</v>
       </c>
@@ -570,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>474340</v>
       </c>
@@ -584,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>474877</v>
       </c>
@@ -598,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>475546</v>
       </c>
@@ -612,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>370018</v>
       </c>
@@ -626,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>369854</v>
       </c>
@@ -640,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>369658</v>
       </c>
@@ -654,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>369266</v>
       </c>
@@ -668,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>368814</v>
       </c>
@@ -682,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>451156</v>
       </c>
@@ -696,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>451305</v>
       </c>
@@ -710,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>451453</v>
       </c>
@@ -724,7 +728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>451622</v>
       </c>
@@ -738,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>451101</v>
       </c>
@@ -752,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>408301</v>
       </c>
@@ -766,7 +770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>408544</v>
       </c>
@@ -780,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>408788</v>
       </c>
@@ -794,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>409311</v>
       </c>
@@ -808,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>410296</v>
       </c>
@@ -822,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>189580</v>
       </c>
@@ -836,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>189728</v>
       </c>
@@ -850,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>189916</v>
       </c>
@@ -864,7 +868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>190212</v>
       </c>
@@ -878,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>190791</v>
       </c>
@@ -892,7 +896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>576803</v>
       </c>
@@ -906,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>577031</v>
       </c>
@@ -920,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>577270</v>
       </c>
@@ -934,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>577830</v>
       </c>
@@ -948,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>578843</v>
       </c>
@@ -962,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>386640</v>
       </c>
@@ -976,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>386405</v>
       </c>
@@ -990,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>386146</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>385646</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>384643</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>495409</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>495160</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>494912</v>
       </c>
@@ -1074,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>494300</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>493429</v>
       </c>

--- a/all_PA_sites.xlsx
+++ b/all_PA_sites.xlsx
@@ -1114,5 +1114,6 @@
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{912a5d77-fb98-4eee-af32-1334d8f04a53}" enabled="0" method="" siteId="{912a5d77-fb98-4eee-af32-1334d8f04a53}" removed="1"/>
+  <clbl:label id="{b9c0cf9b-95a9-4ed9-8c9f-08b60a31829d}" enabled="0" method="" siteId="{b9c0cf9b-95a9-4ed9-8c9f-08b60a31829d}" removed="1"/>
 </clbl:labelList>
 </file>